--- a/data/trans_orig/IP44S2_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP44S2_2023-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{48B096EB-A1FB-4807-82CD-A6CF08A1286C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{70DEBA17-4B9A-4695-9F1B-F306966CBFF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F78CCADF-E4B3-4539-85BC-851190E44B87}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{28C0673B-8130-49EF-892D-DDC27508178B}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="36">
   <si>
     <t>Adultos según si han tenido o no algún retraso en el pago de recibos como en 2023 (Tasa respuesta: 0,21%)</t>
   </si>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Pagos de recibos de agua, gas, calefacción, electricidad, comunidad</t>
@@ -80,10 +80,10 @@
     <t>Cuotas de compras aplazadas</t>
   </si>
   <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -113,7 +113,7 @@
     <t>34,87%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -141,9 +141,6 @@
   </si>
   <si>
     <t>19,24%</t>
-  </si>
-  <si>
-    <t>87,62%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -558,7 +555,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D60F2F29-5355-49F1-B7FB-9821F736AE34}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{638C3BA7-4BD5-42EA-88CA-F75F804E155A}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1786,7 +1783,7 @@
         <v>16</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -1842,7 +1839,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
